--- a/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-observation-labresult.xlsx
@@ -6737,7 +6737,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>93</v>

--- a/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticcategory/StructureDefinition-jp-observation-labresult.xlsx
@@ -6737,7 +6737,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>93</v>
